--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\iCloudDrive\Docs\Ausbildung\QuantLibrary\MScQF_Thesis\9. APT Seminar\apt_seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3614DC69-73B6-46E1-A36C-6B1864A8FCF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC402FE-5DAC-4AE6-BFCC-C606DBD75E65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{4B3D0813-545C-42E7-888E-87020AEA4D91}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{4B3D0813-545C-42E7-888E-87020AEA4D91}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>NOT STARTED</t>
   </si>
@@ -70,12 +71,58 @@
   </si>
   <si>
     <t>SAA IMPL</t>
+  </si>
+  <si>
+    <t>MICROSOFT CORP</t>
+  </si>
+  <si>
+    <t>EXXON CORP</t>
+  </si>
+  <si>
+    <t>FACEBOOK INC</t>
+  </si>
+  <si>
+    <t>GOOGLE INC</t>
+  </si>
+  <si>
+    <t>APPLE COMPUTER INC</t>
+  </si>
+  <si>
+    <t>PFIZER INC</t>
+  </si>
+  <si>
+    <t>JOHNSON &amp; JOHNSON</t>
+  </si>
+  <si>
+    <t>JPMORGAN CHASE &amp; CO</t>
+  </si>
+  <si>
+    <t>WAL MART STORES INC</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA CORP</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Market capitalization in USD</t>
+  </si>
+  <si>
+    <t>Market weight</t>
+  </si>
+  <si>
+    <t>Permno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,8 +152,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -423,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4B641C-D675-4959-BC90-D13982871829}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -512,4 +566,189 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D578EA-FD2B-49D7-BF56-59FBF6D1817B}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>10107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>779673563829.99902</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2/(SUM($C$2:$C$11))</f>
+        <v>0.19841948060482295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>11850</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>288703299330</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D11" si="0">C3/(SUM($C$2:$C$11))</f>
+        <v>7.3472234226538022E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>13407</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>314939267940</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0149037835459291E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>14542</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>362064786653.85004</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>9.2142032570976334E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>14593</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>748539127973.97998</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19049606383392617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>21936</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>252317733750</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4212455058918982E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>22111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>346109260900</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.8081503549953769E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>47896</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>324626621820</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2614376939510056E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>55976</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>270624969000</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8871471701437009E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>59408</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>241821814080</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.15413436784574E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>